--- a/Backlogs/4.1_Grafikrechner_BL.xlsx
+++ b/Backlogs/4.1_Grafikrechner_BL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="0" windowWidth="38715" windowHeight="18735" activeTab="2"/>
+    <workbookView xWindow="16020" yWindow="0" windowWidth="38715" windowHeight="18735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="112">
   <si>
     <t>Projekt</t>
   </si>
@@ -787,7 +787,7 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="130">
     <dxf>
       <font>
         <b val="0"/>
@@ -3029,20 +3029,774 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF66900"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF66900"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="29"/>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="26"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -3802,7 +4556,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3844,7 +4598,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4026,11 +4780,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4091,7 +4845,7 @@
       </c>
       <c r="G2" s="18">
         <f>SUM(G3:G1011)</f>
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4210,8 +4964,8 @@
       <c r="C8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>30</v>
+      <c r="D8" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>58</v>
@@ -4220,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -4294,8 +5048,8 @@
       <c r="C12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>30</v>
+      <c r="D12" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>64</v>
@@ -4304,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -4336,8 +5090,8 @@
       <c r="C14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>30</v>
+      <c r="D14" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>52</v>
@@ -4346,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -4650,8 +5404,8 @@
       <c r="C29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="29" t="s">
-        <v>30</v>
+      <c r="D29" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>92</v>
@@ -4660,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -4819,7 +5573,9 @@
       <c r="D38" s="28"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D39" s="28"/>
+      <c r="D39" s="29" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C40" s="32" t="s">
@@ -4838,350 +5594,394 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <sortState ref="B4:E25">
-    <sortCondition sortBy="cellColor" ref="C4:C25" dxfId="98"/>
+    <sortCondition sortBy="cellColor" ref="C4:C25" dxfId="129"/>
   </sortState>
   <conditionalFormatting sqref="D1:D2 D41:D65549 D7 D10 D21:D23 D37:D38">
-    <cfRule type="cellIs" dxfId="95" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="238" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="212" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="239" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="240" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="92" priority="208" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="235" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="236" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="210" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="237" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="89" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="208" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="182" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="209" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="210" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="86" priority="166" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="193" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="194" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="168" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="195" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="83" priority="160" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="187" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="188" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="162" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="189" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="80" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="136" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="137" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="138" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="77" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="145" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="146" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="147" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="74" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="142" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="143" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="144" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="71" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="133" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="134" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="135" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="68" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="127" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="128" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="129" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="65" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="124" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="125" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="126" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="62" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="121" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="122" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="123" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="59" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="118" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="119" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="120" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="56" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="115" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="116" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="117" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="53" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="112" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="113" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="114" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="50" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="109" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="110" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="111" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="77" priority="103" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="104" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="105" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="74" priority="61" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="62" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="63" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="71" priority="91" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="92" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="93" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="cellIs" dxfId="68" priority="88" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="89" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="90" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="62" priority="82" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="83" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="84" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="53" priority="52" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="54" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="51" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="47" priority="46" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="48" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="44" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="35" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="32" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="29" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="26" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="23" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="20" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"in process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>"done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
       <formula>"open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="44" priority="76" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="77" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="78" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="41" priority="34" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="35" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="38" priority="64" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="65" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="66" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D5">
-    <cfRule type="cellIs" dxfId="35" priority="61" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="62" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="63" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="32" priority="58" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="59" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="60" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="29" priority="55" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="56" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="57" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="26" priority="31" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="32" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="33" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="23" priority="28" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="30" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="20" priority="25" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="26" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="17" priority="22" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="24" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="14" priority="19" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="cellIs" dxfId="8" priority="13" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"in process"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="D29">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"in process"</formula>
     </cfRule>
@@ -5208,7 +6008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
